--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_173.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_173.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09601873536299765</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1027173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['E', 'C#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(80.8, 91.18), (79.04, 86.54)]</t>
+          <t>[['G:maj', 'G:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:41.744240', '0:00:46.109591')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:22.380000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2481203007518797</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G/5', 'D', 'G/5']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1388888888888889</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.432, 24.332)]</t>
+          <t>[['F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:56.454081', '0:01:01.864331')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.960000', '0:00:13.760000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_201</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['B:7', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54)]</t>
+          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[('0:00:13.384180', '0:00:18.719002')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:03.251000', '0:01:10.247000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.82, 8.8)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09738372093023256</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.54, 11.42)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.440395, 5.558652)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.700000', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05025575447570332</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07338709677419356</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.24, 12.56)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(234.42, 237.9), (0.78, 24.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.514896, 45.713082), (32.233898, 36.959159)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1045673076923077</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A/7']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'E']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(83.103979, 86.183398)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.346961, 13.218526)]</t>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2201086956521739</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
